--- a/biology/Botanique/Idared/Idared.xlsx
+++ b/biology/Botanique/Idared/Idared.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Idared est le nom d'un cultivar de pommier domestique.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La pomme Idared est d'un rouge lumineux sur les trois quarts de la surface, le fond étant jaune pâle.
 Sa fine peau cireuse recouvre une chair blanche, demi-croquante, juteuse, douce, acidulée et légèrement sucrée.
@@ -544,7 +558,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce cultivar a été obtenu en 1935 par L. Werner de la station expérimentale de Moscow dans l'Idaho aux États-Unis.
 Il a été commercialisé à partir de 1942.
@@ -576,7 +592,9 @@
           <t>Parenté</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Cultivar issu d'un croisement entre Jonathan et Wagener.
 Descendants:
@@ -613,11 +631,13 @@
           <t>Pollinisation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Variété diploïde.
 Groupe de floraison: A (très précoce).
-S-génotype: S3S7[1].
+S-génotype: S3S7.
 pollinisée par: Red Windsor, Alkmène, McIntosh, Akane, Discovery, Duchess of Oldenburg, Tentation delblush, James Grieve, Jonathan.</t>
         </is>
       </c>
@@ -646,13 +666,15 @@
           <t>Résistances et susceptibilités aux maladies</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tavelure : susceptibilité élevée[2]
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tavelure : susceptibilité élevée
 Mildiou : susceptibilité élevée
 Rouille : susceptibilité élevée
 Feu bactérien : susceptibilité élevée
-Le cultivar « Idared » est très sensible aux maladies[3]. Cette susceptibilité en fait une variété inappropriée aux petits jardins familiaux où les traitements ne sont pas systématiques.
+Le cultivar « Idared » est très sensible aux maladies. Cette susceptibilité en fait une variété inappropriée aux petits jardins familiaux où les traitements ne sont pas systématiques.
 </t>
         </is>
       </c>
@@ -681,7 +703,9 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le cultivar « Idared » est de vigueur faible à moyenne. Sur un porte-greffe approprié, il produit des pommes en abondance et sans alternance.
 Le fruit nécessite une bonne exposition au soleil pour une coloration maximale. Il est souvent de gros calibre dans les premières années de mise à fruits ou il est aussi parfois hétérogène.
